--- a/data/pca/factorExposure/factorExposure_2009-04-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-04-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01738543525588921</v>
+        <v>0.01675309130936185</v>
       </c>
       <c r="C2">
-        <v>-0.002100067072285643</v>
+        <v>-0.001359380491297987</v>
       </c>
       <c r="D2">
-        <v>0.007618209413566172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008605256147236383</v>
+      </c>
+      <c r="E2">
+        <v>0.0004928433955124841</v>
+      </c>
+      <c r="F2">
+        <v>0.01953612170431094</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08715064151127989</v>
+        <v>0.09035475518373301</v>
       </c>
       <c r="C4">
-        <v>-0.02055810063671602</v>
+        <v>-0.01595026721573243</v>
       </c>
       <c r="D4">
-        <v>0.08073348867977045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0839322198760304</v>
+      </c>
+      <c r="E4">
+        <v>0.03228456473060495</v>
+      </c>
+      <c r="F4">
+        <v>-0.03710649425829208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0004444727932301758</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6.99806831180083e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-5.791693693130024e-05</v>
+      </c>
+      <c r="E5">
+        <v>2.110388945663971e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.0005490861603447381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1573086094467545</v>
+        <v>0.1650719545773483</v>
       </c>
       <c r="C6">
-        <v>-0.03519251824899035</v>
+        <v>-0.03355878384217355</v>
       </c>
       <c r="D6">
-        <v>-0.0294400507151487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02052403296093506</v>
+      </c>
+      <c r="E6">
+        <v>0.01571062177308408</v>
+      </c>
+      <c r="F6">
+        <v>-0.05587092336271873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.0574338253131011</v>
+        <v>0.06134146340587678</v>
       </c>
       <c r="C7">
-        <v>-0.002225859250032305</v>
+        <v>0.0009060308078703025</v>
       </c>
       <c r="D7">
-        <v>0.04794960741251691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05252872156858212</v>
+      </c>
+      <c r="E7">
+        <v>0.01965267938476091</v>
+      </c>
+      <c r="F7">
+        <v>-0.04489024366278448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05841224576672837</v>
+        <v>0.05491603146404753</v>
       </c>
       <c r="C8">
-        <v>0.009636310689026359</v>
+        <v>0.0118182915352982</v>
       </c>
       <c r="D8">
-        <v>0.02552966552282073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03000313542416198</v>
+      </c>
+      <c r="E8">
+        <v>0.01331440340799154</v>
+      </c>
+      <c r="F8">
+        <v>0.03711268453340555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06868728385976211</v>
+        <v>0.07116059510074922</v>
       </c>
       <c r="C9">
-        <v>-0.01663033039269594</v>
+        <v>-0.01174827692287233</v>
       </c>
       <c r="D9">
-        <v>0.08407921218605675</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08768594399722963</v>
+      </c>
+      <c r="E9">
+        <v>0.03069338960144048</v>
+      </c>
+      <c r="F9">
+        <v>-0.05642665508096729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.0883458110823433</v>
+        <v>0.087516096146786</v>
       </c>
       <c r="C10">
-        <v>-0.02027399058139439</v>
+        <v>-0.02366126225549723</v>
       </c>
       <c r="D10">
-        <v>-0.1675893952789304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1583188737545356</v>
+      </c>
+      <c r="E10">
+        <v>-0.03698433441685012</v>
+      </c>
+      <c r="F10">
+        <v>0.07693564442604117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08892907444673363</v>
+        <v>0.08590672685629198</v>
       </c>
       <c r="C11">
-        <v>-0.01797374901288909</v>
+        <v>-0.01257683754045756</v>
       </c>
       <c r="D11">
-        <v>0.1153677369238202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1201910999672264</v>
+      </c>
+      <c r="E11">
+        <v>0.05592099305220193</v>
+      </c>
+      <c r="F11">
+        <v>-0.00479692054700904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09515711099084109</v>
+        <v>0.08989508221372762</v>
       </c>
       <c r="C12">
-        <v>-0.01645233753616342</v>
+        <v>-0.01024888693318426</v>
       </c>
       <c r="D12">
-        <v>0.1231456016096915</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1361181357622805</v>
+      </c>
+      <c r="E12">
+        <v>0.05967402443181001</v>
+      </c>
+      <c r="F12">
+        <v>-0.01036237458674621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04515027784506285</v>
+        <v>0.04543536677079282</v>
       </c>
       <c r="C13">
-        <v>-0.007595253469529746</v>
+        <v>-0.004270888965818317</v>
       </c>
       <c r="D13">
-        <v>0.04899431483726401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05606043392908458</v>
+      </c>
+      <c r="E13">
+        <v>-0.0006064430540528913</v>
+      </c>
+      <c r="F13">
+        <v>-0.006170998081634254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01824105972465101</v>
+        <v>0.02145614167895981</v>
       </c>
       <c r="C14">
-        <v>-0.01471331461756604</v>
+        <v>-0.01361263230911587</v>
       </c>
       <c r="D14">
-        <v>0.03276303381554804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03377061531568708</v>
+      </c>
+      <c r="E14">
+        <v>0.02224256346048644</v>
+      </c>
+      <c r="F14">
+        <v>-0.01267712430717268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03434991500680367</v>
+        <v>0.03495475619193093</v>
       </c>
       <c r="C15">
-        <v>-0.008522781981858385</v>
+        <v>-0.006579508265171247</v>
       </c>
       <c r="D15">
-        <v>0.04840494705084501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04845433292026842</v>
+      </c>
+      <c r="E15">
+        <v>0.01168732697305327</v>
+      </c>
+      <c r="F15">
+        <v>-0.02772263318364399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07125649915894167</v>
+        <v>0.06967437593859262</v>
       </c>
       <c r="C16">
-        <v>-0.007277026126725978</v>
+        <v>-0.001807953964310528</v>
       </c>
       <c r="D16">
-        <v>0.1189340160846832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1307554834141093</v>
+      </c>
+      <c r="E16">
+        <v>0.07018067833286984</v>
+      </c>
+      <c r="F16">
+        <v>-0.007228643569219937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.002110268933342467</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0007296826760696994</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001691152325747361</v>
+      </c>
+      <c r="E17">
+        <v>0.004745473309763829</v>
+      </c>
+      <c r="F17">
+        <v>0.003892745498409481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02829202431036342</v>
+        <v>0.04558321196164324</v>
       </c>
       <c r="C18">
-        <v>0.0004841828037817992</v>
+        <v>0.0003868661585516018</v>
       </c>
       <c r="D18">
-        <v>0.02094280332646698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01867821917067465</v>
+      </c>
+      <c r="E18">
+        <v>-0.005545086326605303</v>
+      </c>
+      <c r="F18">
+        <v>0.01355718140326978</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06330232589100022</v>
+        <v>0.06225559958148298</v>
       </c>
       <c r="C20">
-        <v>-0.006211102907997978</v>
+        <v>-0.002471810702856938</v>
       </c>
       <c r="D20">
-        <v>0.07497983706066368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07914095522164542</v>
+      </c>
+      <c r="E20">
+        <v>0.0648290572308116</v>
+      </c>
+      <c r="F20">
+        <v>-0.02889548459647461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04054589322572177</v>
+        <v>0.04262723976962322</v>
       </c>
       <c r="C21">
-        <v>-0.01016477526259576</v>
+        <v>-0.007885414633175542</v>
       </c>
       <c r="D21">
-        <v>0.03818408524592314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03727307590494033</v>
+      </c>
+      <c r="E21">
+        <v>0.0006171779752154381</v>
+      </c>
+      <c r="F21">
+        <v>0.02540811178402365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04423389954874527</v>
+        <v>0.04471643820884071</v>
       </c>
       <c r="C22">
-        <v>-0.003294991937307134</v>
+        <v>-0.002378879695539733</v>
       </c>
       <c r="D22">
-        <v>0.002367233405910496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.009525639567526979</v>
+      </c>
+      <c r="E22">
+        <v>0.02908246955174791</v>
+      </c>
+      <c r="F22">
+        <v>0.0891082019869318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04424240107936207</v>
+        <v>0.04472371210698081</v>
       </c>
       <c r="C23">
-        <v>-0.00329718008841411</v>
+        <v>-0.002381009820477486</v>
       </c>
       <c r="D23">
-        <v>0.002358347801808182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.009518862677188553</v>
+      </c>
+      <c r="E23">
+        <v>0.02909024137032963</v>
+      </c>
+      <c r="F23">
+        <v>0.08914875320684285</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07904975919205</v>
+        <v>0.07612817316408763</v>
       </c>
       <c r="C24">
-        <v>-0.00822008099526012</v>
+        <v>-0.002888959507045725</v>
       </c>
       <c r="D24">
-        <v>0.120244073732283</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1241885692852767</v>
+      </c>
+      <c r="E24">
+        <v>0.05466755790916272</v>
+      </c>
+      <c r="F24">
+        <v>-0.01886323452784544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.0834771336569714</v>
+        <v>0.08049811422388428</v>
       </c>
       <c r="C25">
-        <v>-0.01044735018699121</v>
+        <v>-0.005601009754380038</v>
       </c>
       <c r="D25">
-        <v>0.1075408133826968</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1119221306888508</v>
+      </c>
+      <c r="E25">
+        <v>0.04069874543971937</v>
+      </c>
+      <c r="F25">
+        <v>-0.01228757133131561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05643304930458856</v>
+        <v>0.06116303671797062</v>
       </c>
       <c r="C26">
-        <v>-0.01882027800276559</v>
+        <v>-0.01577019023829587</v>
       </c>
       <c r="D26">
-        <v>0.04160777385095472</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04917600966990426</v>
+      </c>
+      <c r="E26">
+        <v>0.02867947423878879</v>
+      </c>
+      <c r="F26">
+        <v>0.01884594582923003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1416839830931526</v>
+        <v>0.148288409513408</v>
       </c>
       <c r="C28">
-        <v>-0.0222617208581357</v>
+        <v>-0.02828701212925834</v>
       </c>
       <c r="D28">
-        <v>-0.2593012131047323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2549279228697978</v>
+      </c>
+      <c r="E28">
+        <v>-0.06176155925691838</v>
+      </c>
+      <c r="F28">
+        <v>-0.006085151635819326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02543290585022642</v>
+        <v>0.02760571399038074</v>
       </c>
       <c r="C29">
-        <v>-0.009774957457597188</v>
+        <v>-0.009060799187725789</v>
       </c>
       <c r="D29">
-        <v>0.03127435051720016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03127400919652708</v>
+      </c>
+      <c r="E29">
+        <v>0.01659574058459863</v>
+      </c>
+      <c r="F29">
+        <v>0.02513409119208419</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05498840303389699</v>
+        <v>0.05308691146868369</v>
       </c>
       <c r="C30">
-        <v>-0.007008417803269362</v>
+        <v>-0.002642667144067126</v>
       </c>
       <c r="D30">
-        <v>0.0820860548334077</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0880986570254962</v>
+      </c>
+      <c r="E30">
+        <v>0.02219846633670167</v>
+      </c>
+      <c r="F30">
+        <v>-0.09987522931207245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05119952947346887</v>
+        <v>0.05163819913507407</v>
       </c>
       <c r="C31">
-        <v>-0.01879401345675352</v>
+        <v>-0.01713326779073028</v>
       </c>
       <c r="D31">
-        <v>0.02440291803033525</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0266662080644779</v>
+      </c>
+      <c r="E31">
+        <v>0.02922498558263124</v>
+      </c>
+      <c r="F31">
+        <v>0.01172131563125217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04553382474866258</v>
+        <v>0.05039261592555026</v>
       </c>
       <c r="C32">
-        <v>-0.002255474920893785</v>
+        <v>0.0009821198189087974</v>
       </c>
       <c r="D32">
-        <v>0.03235932223809121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03571395196524275</v>
+      </c>
+      <c r="E32">
+        <v>0.03146412606739937</v>
+      </c>
+      <c r="F32">
+        <v>0.003783659749644219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08972969156977807</v>
+        <v>0.09002250195624818</v>
       </c>
       <c r="C33">
-        <v>-0.01462319584060086</v>
+        <v>-0.008809615460592755</v>
       </c>
       <c r="D33">
-        <v>0.09288683948156731</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1060164678482771</v>
+      </c>
+      <c r="E33">
+        <v>0.05718207933273641</v>
+      </c>
+      <c r="F33">
+        <v>-0.02354491766256923</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06666496526801212</v>
+        <v>0.06596757259953231</v>
       </c>
       <c r="C34">
-        <v>-0.01616407390009627</v>
+        <v>-0.0112985439427052</v>
       </c>
       <c r="D34">
-        <v>0.1016779190831914</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1124670219362626</v>
+      </c>
+      <c r="E34">
+        <v>0.04318813149351593</v>
+      </c>
+      <c r="F34">
+        <v>-0.03005004902464116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02701246464674124</v>
+        <v>0.0283051376140913</v>
       </c>
       <c r="C35">
-        <v>-0.005002396782516629</v>
+        <v>-0.004450057658364769</v>
       </c>
       <c r="D35">
-        <v>0.009282792650351875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0117646426555654</v>
+      </c>
+      <c r="E35">
+        <v>0.01767652142877293</v>
+      </c>
+      <c r="F35">
+        <v>0.007237177318817604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02377523036137653</v>
+        <v>0.0282856896372544</v>
       </c>
       <c r="C36">
-        <v>-0.008651398775847103</v>
+        <v>-0.007528496426754083</v>
       </c>
       <c r="D36">
-        <v>0.03923313313387106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04112567788397358</v>
+      </c>
+      <c r="E36">
+        <v>0.02003499079023063</v>
+      </c>
+      <c r="F36">
+        <v>-0.01439701098712412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.002717345859080794</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007234294455361909</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002954916468319416</v>
+      </c>
+      <c r="E37">
+        <v>0.0007760020796825938</v>
+      </c>
+      <c r="F37">
+        <v>0.0009747141385300494</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1057619686329984</v>
+        <v>0.09603644658440751</v>
       </c>
       <c r="C39">
-        <v>-0.02329781558922167</v>
+        <v>-0.01680824726096488</v>
       </c>
       <c r="D39">
-        <v>0.1542244654024393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1538272669951507</v>
+      </c>
+      <c r="E39">
+        <v>0.07023556670942419</v>
+      </c>
+      <c r="F39">
+        <v>0.005991234436816992</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.04263393215860765</v>
+        <v>0.0477780681351975</v>
       </c>
       <c r="C40">
-        <v>-0.01157305770797391</v>
+        <v>-0.01012598948618199</v>
       </c>
       <c r="D40">
-        <v>0.02745383416887938</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03402540088976833</v>
+      </c>
+      <c r="E40">
+        <v>0.001274426320668178</v>
+      </c>
+      <c r="F40">
+        <v>0.03106950737800498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02556251472882642</v>
+        <v>0.02799791017796378</v>
       </c>
       <c r="C41">
-        <v>-0.008207667102439161</v>
+        <v>-0.007635242166654669</v>
       </c>
       <c r="D41">
-        <v>0.009272739251071017</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01096668990689409</v>
+      </c>
+      <c r="E41">
+        <v>0.01161024448581083</v>
+      </c>
+      <c r="F41">
+        <v>0.01384345385219208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04062000464756707</v>
+        <v>0.03937465950981904</v>
       </c>
       <c r="C43">
-        <v>-0.009028302193736066</v>
+        <v>-0.008165199422854569</v>
       </c>
       <c r="D43">
-        <v>0.02027701208261228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02146437682974009</v>
+      </c>
+      <c r="E43">
+        <v>0.02691691600647297</v>
+      </c>
+      <c r="F43">
+        <v>0.0280833615945992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06591439532670344</v>
+        <v>0.07305622157135117</v>
       </c>
       <c r="C44">
-        <v>-0.02368399093235979</v>
+        <v>-0.0194557125231896</v>
       </c>
       <c r="D44">
-        <v>0.08444497930842786</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09093872668180149</v>
+      </c>
+      <c r="E44">
+        <v>0.07778826435403403</v>
+      </c>
+      <c r="F44">
+        <v>-0.1890129953904122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>0.0001308654108043954</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-1.271993263827695e-05</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-6.286328645442379e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0001651390247221302</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001256864246978168</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02202727289924678</v>
+        <v>0.02487362913426287</v>
       </c>
       <c r="C46">
-        <v>-0.004771951028657863</v>
+        <v>-0.004047004953981322</v>
       </c>
       <c r="D46">
-        <v>0.01322815099636547</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0153033068928061</v>
+      </c>
+      <c r="E46">
+        <v>0.03332995206878468</v>
+      </c>
+      <c r="F46">
+        <v>0.02912785054731681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0542302371297148</v>
+        <v>0.05309794668774918</v>
       </c>
       <c r="C47">
-        <v>-0.007136483183082029</v>
+        <v>-0.005608252127905761</v>
       </c>
       <c r="D47">
-        <v>0.008945803802213229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0127169408867349</v>
+      </c>
+      <c r="E47">
+        <v>0.02406862667938853</v>
+      </c>
+      <c r="F47">
+        <v>0.04684783219858341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0484610998873371</v>
+        <v>0.05184986586800525</v>
       </c>
       <c r="C48">
-        <v>-0.005924129153033124</v>
+        <v>-0.00331043143860704</v>
       </c>
       <c r="D48">
-        <v>0.05085788115369801</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05345109254038989</v>
+      </c>
+      <c r="E48">
+        <v>-0.001350217840203667</v>
+      </c>
+      <c r="F48">
+        <v>-0.01099129283805351</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1968953149837315</v>
+        <v>0.1992856434232107</v>
       </c>
       <c r="C49">
-        <v>-0.02804910726355727</v>
+        <v>-0.0244211884626288</v>
       </c>
       <c r="D49">
-        <v>-0.009632746436773979</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.003812930444765587</v>
+      </c>
+      <c r="E49">
+        <v>0.02411912256270302</v>
+      </c>
+      <c r="F49">
+        <v>-0.0657710707780239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04974081879320747</v>
+        <v>0.05228923934004157</v>
       </c>
       <c r="C50">
-        <v>-0.01450350254744475</v>
+        <v>-0.0130083994562195</v>
       </c>
       <c r="D50">
-        <v>0.0244703875705465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0266734366332786</v>
+      </c>
+      <c r="E50">
+        <v>0.03069516325982705</v>
+      </c>
+      <c r="F50">
+        <v>-0.005799602883672001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1524301720293645</v>
+        <v>0.1459608636539664</v>
       </c>
       <c r="C52">
-        <v>-0.02446033652477057</v>
+        <v>-0.02118149634079779</v>
       </c>
       <c r="D52">
-        <v>0.0420824535889573</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04414352505015832</v>
+      </c>
+      <c r="E52">
+        <v>0.03172188918370497</v>
+      </c>
+      <c r="F52">
+        <v>-0.04352281360061434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1751958532383182</v>
+        <v>0.168148650970055</v>
       </c>
       <c r="C53">
-        <v>-0.02729233317995028</v>
+        <v>-0.02523645147032292</v>
       </c>
       <c r="D53">
-        <v>0.004992620193743317</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00823892293022895</v>
+      </c>
+      <c r="E53">
+        <v>0.04046162630893161</v>
+      </c>
+      <c r="F53">
+        <v>-0.09604557693147502</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01488349372249083</v>
+        <v>0.01837421877746025</v>
       </c>
       <c r="C54">
-        <v>-0.01219139017776617</v>
+        <v>-0.01133306391700857</v>
       </c>
       <c r="D54">
-        <v>0.02900593115276063</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02846635812361044</v>
+      </c>
+      <c r="E54">
+        <v>0.01969096554987113</v>
+      </c>
+      <c r="F54">
+        <v>0.005949153822223534</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1187443057699029</v>
+        <v>0.1167956682690193</v>
       </c>
       <c r="C55">
-        <v>-0.02338701995777289</v>
+        <v>-0.02186780198826316</v>
       </c>
       <c r="D55">
-        <v>0.004601807843523452</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.0116226680323315</v>
+      </c>
+      <c r="E55">
+        <v>0.03917669258107932</v>
+      </c>
+      <c r="F55">
+        <v>-0.03369486832427768</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1809825972510038</v>
+        <v>0.1751978888211995</v>
       </c>
       <c r="C56">
-        <v>-0.02530213792649156</v>
+        <v>-0.02358238948174668</v>
       </c>
       <c r="D56">
-        <v>-0.004350278411491375</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0003361626547163109</v>
+      </c>
+      <c r="E56">
+        <v>0.04054644321585016</v>
+      </c>
+      <c r="F56">
+        <v>-0.05477300708743768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04589020189281934</v>
+        <v>0.04456397995404517</v>
       </c>
       <c r="C58">
-        <v>-0.004657562588293206</v>
+        <v>-0.0001413899457044934</v>
       </c>
       <c r="D58">
-        <v>0.06809456917481364</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.077672102040633</v>
+      </c>
+      <c r="E58">
+        <v>0.03614657995209447</v>
+      </c>
+      <c r="F58">
+        <v>0.05128127277116588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1659384504973486</v>
+        <v>0.1712960196506395</v>
       </c>
       <c r="C59">
-        <v>-0.02369836456001996</v>
+        <v>-0.02847770947699792</v>
       </c>
       <c r="D59">
-        <v>-0.2190369872053305</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2148965895555037</v>
+      </c>
+      <c r="E59">
+        <v>-0.05411467172066652</v>
+      </c>
+      <c r="F59">
+        <v>0.06335658506911908</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2338153637222964</v>
+        <v>0.2264592335314105</v>
       </c>
       <c r="C60">
-        <v>-0.008982785608286737</v>
+        <v>-0.003913427477903665</v>
       </c>
       <c r="D60">
-        <v>0.03704880126740448</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03815275802642582</v>
+      </c>
+      <c r="E60">
+        <v>-0.006292809123295564</v>
+      </c>
+      <c r="F60">
+        <v>-0.01976996520516987</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07692322583983761</v>
+        <v>0.07243785397957357</v>
       </c>
       <c r="C61">
-        <v>-0.01695865788803505</v>
+        <v>-0.01137248987770515</v>
       </c>
       <c r="D61">
-        <v>0.1137423067616339</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1180931142323567</v>
+      </c>
+      <c r="E61">
+        <v>0.04589406915972354</v>
+      </c>
+      <c r="F61">
+        <v>0.01294936792109677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1721586352532433</v>
+        <v>0.1678758935456502</v>
       </c>
       <c r="C62">
-        <v>-0.02823568831044137</v>
+        <v>-0.02572953297911881</v>
       </c>
       <c r="D62">
-        <v>0.002962332768783073</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.009836311087020259</v>
+      </c>
+      <c r="E62">
+        <v>0.04259158519967039</v>
+      </c>
+      <c r="F62">
+        <v>-0.03582551817764566</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04282445635137619</v>
+        <v>0.04732549798867967</v>
       </c>
       <c r="C63">
-        <v>-0.006067360581919734</v>
+        <v>-0.003491687969095793</v>
       </c>
       <c r="D63">
-        <v>0.0556502619500228</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06420031529310159</v>
+      </c>
+      <c r="E63">
+        <v>0.02543351401892972</v>
+      </c>
+      <c r="F63">
+        <v>0.009707824194504009</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1141541391185409</v>
+        <v>0.1113619845643646</v>
       </c>
       <c r="C64">
-        <v>-0.01931026234811745</v>
+        <v>-0.01536659369748022</v>
       </c>
       <c r="D64">
-        <v>0.03870485385246891</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04461884586829165</v>
+      </c>
+      <c r="E64">
+        <v>0.03126882693969352</v>
+      </c>
+      <c r="F64">
+        <v>-0.02119147540750142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1485241503037337</v>
+        <v>0.1555341978404345</v>
       </c>
       <c r="C65">
-        <v>-0.04112446370995456</v>
+        <v>-0.03998130493323875</v>
       </c>
       <c r="D65">
-        <v>-0.0504308816376759</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04013876036295185</v>
+      </c>
+      <c r="E65">
+        <v>0.0101146084857968</v>
+      </c>
+      <c r="F65">
+        <v>-0.05852209202097661</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1274813427788708</v>
+        <v>0.1154683401882434</v>
       </c>
       <c r="C66">
-        <v>-0.02206783343930364</v>
+        <v>-0.01498974149662474</v>
       </c>
       <c r="D66">
-        <v>0.138093460788661</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1432067827025324</v>
+      </c>
+      <c r="E66">
+        <v>0.07339874410230038</v>
+      </c>
+      <c r="F66">
+        <v>0.002234445955465242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06192225047567809</v>
+        <v>0.05499034235516499</v>
       </c>
       <c r="C67">
-        <v>-0.006839549627761865</v>
+        <v>-0.004249583190860739</v>
       </c>
       <c r="D67">
-        <v>0.05619874836525283</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05920038212430308</v>
+      </c>
+      <c r="E67">
+        <v>0.0240212580295969</v>
+      </c>
+      <c r="F67">
+        <v>0.07124879421474876</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1134245713540658</v>
+        <v>0.1216964686504096</v>
       </c>
       <c r="C68">
-        <v>-0.03133726356143392</v>
+        <v>-0.03832773161370026</v>
       </c>
       <c r="D68">
-        <v>-0.2606441035994118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2572828613794683</v>
+      </c>
+      <c r="E68">
+        <v>-0.0862734845697041</v>
+      </c>
+      <c r="F68">
+        <v>-0.01714604947282843</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04031099099418582</v>
+        <v>0.03961201283857863</v>
       </c>
       <c r="C69">
-        <v>-0.003510674892622449</v>
+        <v>-0.002386926662778039</v>
       </c>
       <c r="D69">
-        <v>0.01033574556094139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01104195024300592</v>
+      </c>
+      <c r="E69">
+        <v>0.02974478163872369</v>
+      </c>
+      <c r="F69">
+        <v>0.01882067962848577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.0688979504309971</v>
+        <v>0.06974921077943434</v>
       </c>
       <c r="C70">
-        <v>0.02259850199796581</v>
+        <v>0.02490089921950672</v>
       </c>
       <c r="D70">
-        <v>0.0300360885272863</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03156362118837977</v>
+      </c>
+      <c r="E70">
+        <v>-0.03919613109191302</v>
+      </c>
+      <c r="F70">
+        <v>0.3326009764322355</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1327071059359532</v>
+        <v>0.1419124503879522</v>
       </c>
       <c r="C71">
-        <v>-0.03651360694973519</v>
+        <v>-0.04350794665791977</v>
       </c>
       <c r="D71">
-        <v>-0.2747527898360502</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2669296444643846</v>
+      </c>
+      <c r="E71">
+        <v>-0.09601086732304588</v>
+      </c>
+      <c r="F71">
+        <v>-0.02232976622630324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1380487603818533</v>
+        <v>0.1438599915810628</v>
       </c>
       <c r="C72">
-        <v>-0.03192284793587133</v>
+        <v>-0.03130774561890911</v>
       </c>
       <c r="D72">
-        <v>0.001255281736787693</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0005953613119726083</v>
+      </c>
+      <c r="E72">
+        <v>0.04358518143674607</v>
+      </c>
+      <c r="F72">
+        <v>-0.03643979946439314</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.1984475931519365</v>
+        <v>0.2019462586099839</v>
       </c>
       <c r="C73">
-        <v>-0.02163865868962178</v>
+        <v>-0.01676088608619284</v>
       </c>
       <c r="D73">
-        <v>0.01035294376677246</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0175579920518887</v>
+      </c>
+      <c r="E73">
+        <v>0.06711592451688793</v>
+      </c>
+      <c r="F73">
+        <v>-0.03192426326475142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08877828147716389</v>
+        <v>0.08881825783092835</v>
       </c>
       <c r="C74">
-        <v>-0.01631072783861788</v>
+        <v>-0.0146851076846398</v>
       </c>
       <c r="D74">
-        <v>0.01174900803658895</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01709199916765735</v>
+      </c>
+      <c r="E74">
+        <v>0.05002581125619679</v>
+      </c>
+      <c r="F74">
+        <v>-0.05232861576887948</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1310652659260045</v>
+        <v>0.1233974526891262</v>
       </c>
       <c r="C75">
-        <v>-0.03444199365461238</v>
+        <v>-0.03156353878294413</v>
       </c>
       <c r="D75">
-        <v>0.02635762525557209</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03210426990937241</v>
+      </c>
+      <c r="E75">
+        <v>0.06215648154589242</v>
+      </c>
+      <c r="F75">
+        <v>-0.01822885200568425</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08085373996723574</v>
+        <v>0.09329899276080869</v>
       </c>
       <c r="C77">
-        <v>-0.01556565610523676</v>
+        <v>-0.01090534938716505</v>
       </c>
       <c r="D77">
-        <v>0.1199341493258234</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1209928368789114</v>
+      </c>
+      <c r="E77">
+        <v>0.04810032054424006</v>
+      </c>
+      <c r="F77">
+        <v>-0.04283609079453467</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09926187242621849</v>
+        <v>0.100199188770244</v>
       </c>
       <c r="C78">
-        <v>-0.04559167749485623</v>
+        <v>-0.04128652801039939</v>
       </c>
       <c r="D78">
-        <v>0.1096361307728226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1087484491071695</v>
+      </c>
+      <c r="E78">
+        <v>0.07964076219403368</v>
+      </c>
+      <c r="F78">
+        <v>-0.04335786156051346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1690087354021392</v>
+        <v>0.1644071751213378</v>
       </c>
       <c r="C79">
-        <v>-0.03162184114996556</v>
+        <v>-0.02892835329651906</v>
       </c>
       <c r="D79">
-        <v>0.01127834537070954</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01742708832128888</v>
+      </c>
+      <c r="E79">
+        <v>0.05091167387551337</v>
+      </c>
+      <c r="F79">
+        <v>-0.01267921099653349</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08106237248901967</v>
+        <v>0.07957433489912043</v>
       </c>
       <c r="C80">
-        <v>-0.004369304043063049</v>
+        <v>-0.001490780359033349</v>
       </c>
       <c r="D80">
-        <v>0.05097455847197565</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0510641312358509</v>
+      </c>
+      <c r="E80">
+        <v>0.03582012122678372</v>
+      </c>
+      <c r="F80">
+        <v>0.059668530563063</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1185031865471566</v>
+        <v>0.112812363601036</v>
       </c>
       <c r="C81">
-        <v>-0.03633303449818736</v>
+        <v>-0.0347331676241036</v>
       </c>
       <c r="D81">
-        <v>0.00684939846588107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01202989220499045</v>
+      </c>
+      <c r="E81">
+        <v>0.05663409601980512</v>
+      </c>
+      <c r="F81">
+        <v>-0.00908450677128758</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.164056039007743</v>
+        <v>0.1619242287353379</v>
       </c>
       <c r="C82">
-        <v>-0.0311749857060207</v>
+        <v>-0.02980541433794211</v>
       </c>
       <c r="D82">
-        <v>0.006216554030270716</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005420725494428523</v>
+      </c>
+      <c r="E82">
+        <v>0.03906704740950494</v>
+      </c>
+      <c r="F82">
+        <v>-0.09673277980496343</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05696692197179529</v>
+        <v>0.05242142386520198</v>
       </c>
       <c r="C83">
-        <v>-0.005638719354062863</v>
+        <v>-0.003407809694257908</v>
       </c>
       <c r="D83">
-        <v>0.03897143624867606</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0398740160714743</v>
+      </c>
+      <c r="E83">
+        <v>-0.008273957200237497</v>
+      </c>
+      <c r="F83">
+        <v>0.04038800331550467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05927320211977668</v>
+        <v>0.05486644895142972</v>
       </c>
       <c r="C84">
-        <v>-0.01434291512494159</v>
+        <v>-0.01125686432828591</v>
       </c>
       <c r="D84">
-        <v>0.07658082714346919</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07757744136752334</v>
+      </c>
+      <c r="E84">
+        <v>0.01755207337333961</v>
+      </c>
+      <c r="F84">
+        <v>-0.002398683313824314</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1402868601174436</v>
+        <v>0.1350082255913021</v>
       </c>
       <c r="C85">
-        <v>-0.03493226829980788</v>
+        <v>-0.03286346636688805</v>
       </c>
       <c r="D85">
-        <v>0.006503756231696065</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01117585313383894</v>
+      </c>
+      <c r="E85">
+        <v>0.04691591023003056</v>
+      </c>
+      <c r="F85">
+        <v>-0.05825550876231245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08101475026428941</v>
+        <v>0.07805118901637444</v>
       </c>
       <c r="C86">
-        <v>0.005595212308787259</v>
+        <v>0.008720560815498383</v>
       </c>
       <c r="D86">
-        <v>0.02241567794157918</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04885998766122569</v>
+      </c>
+      <c r="E86">
+        <v>0.08883890268069797</v>
+      </c>
+      <c r="F86">
+        <v>0.8269004801936889</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09300559051830794</v>
+        <v>0.09053429340902931</v>
       </c>
       <c r="C87">
-        <v>-0.02977309263138279</v>
+        <v>-0.02151994998794076</v>
       </c>
       <c r="D87">
-        <v>0.07401653059341745</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09153140421549082</v>
+      </c>
+      <c r="E87">
+        <v>-0.0582633770790109</v>
+      </c>
+      <c r="F87">
+        <v>-0.07759719327090775</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06219568933794282</v>
+        <v>0.0610689773102165</v>
       </c>
       <c r="C88">
-        <v>-0.006867537385740688</v>
+        <v>-0.003861448456639721</v>
       </c>
       <c r="D88">
-        <v>0.05070194175032344</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05096248863537878</v>
+      </c>
+      <c r="E88">
+        <v>0.03132689622658461</v>
+      </c>
+      <c r="F88">
+        <v>-0.000453528042028837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1236641072220988</v>
+        <v>0.1305503855756862</v>
       </c>
       <c r="C89">
-        <v>-0.01189533667650105</v>
+        <v>-0.018347528207698</v>
       </c>
       <c r="D89">
-        <v>-0.2352918793018253</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.239563188882901</v>
+      </c>
+      <c r="E89">
+        <v>-0.08727008701028353</v>
+      </c>
+      <c r="F89">
+        <v>-0.00810153051178757</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1437461887040865</v>
+        <v>0.1569618994367829</v>
       </c>
       <c r="C90">
-        <v>-0.03269431448010316</v>
+        <v>-0.04042138922345546</v>
       </c>
       <c r="D90">
-        <v>-0.261922910785765</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2650550106919907</v>
+      </c>
+      <c r="E90">
+        <v>-0.1166493721275165</v>
+      </c>
+      <c r="F90">
+        <v>-0.009527243891345735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1253650021209181</v>
+        <v>0.1214475793241287</v>
       </c>
       <c r="C91">
-        <v>-0.02575009070518837</v>
+        <v>-0.02447830456989175</v>
       </c>
       <c r="D91">
-        <v>-0.01875717988191582</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01373757136661357</v>
+      </c>
+      <c r="E91">
+        <v>0.05761749074983297</v>
+      </c>
+      <c r="F91">
+        <v>0.01637005530931331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1446279666451676</v>
+        <v>0.1501253838014856</v>
       </c>
       <c r="C92">
-        <v>-0.02388381158920578</v>
+        <v>-0.03135032627394629</v>
       </c>
       <c r="D92">
-        <v>-0.2886476068278004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2898239077303542</v>
+      </c>
+      <c r="E92">
+        <v>-0.1055727031548208</v>
+      </c>
+      <c r="F92">
+        <v>0.006366255525999071</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1489755205721622</v>
+        <v>0.1596650566795857</v>
       </c>
       <c r="C93">
-        <v>-0.02939521992937218</v>
+        <v>-0.03554746425227805</v>
       </c>
       <c r="D93">
-        <v>-0.2587449260105436</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2582676068244647</v>
+      </c>
+      <c r="E93">
+        <v>-0.07099279448176958</v>
+      </c>
+      <c r="F93">
+        <v>-0.01418573620011132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1308363282467618</v>
+        <v>0.1232433475008205</v>
       </c>
       <c r="C94">
-        <v>-0.0308694468867792</v>
+        <v>-0.02724907968429529</v>
       </c>
       <c r="D94">
-        <v>0.04168208765712965</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04561322255490808</v>
+      </c>
+      <c r="E94">
+        <v>0.06408337213269022</v>
+      </c>
+      <c r="F94">
+        <v>-0.02247716455222293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1266045919482252</v>
+        <v>0.1292954797917366</v>
       </c>
       <c r="C95">
-        <v>-0.01287422264463912</v>
+        <v>-0.007391574496140739</v>
       </c>
       <c r="D95">
-        <v>0.08963025293568266</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1006256434100171</v>
+      </c>
+      <c r="E95">
+        <v>0.06295328078103554</v>
+      </c>
+      <c r="F95">
+        <v>0.03147381020591409</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1536846828997764</v>
+        <v>0.1397458469795701</v>
       </c>
       <c r="C96">
-        <v>0.9822872381512915</v>
+        <v>0.9832566500151214</v>
       </c>
       <c r="D96">
-        <v>-0.02806582577538932</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05490099388335969</v>
+      </c>
+      <c r="E96">
+        <v>0.05365958937357986</v>
+      </c>
+      <c r="F96">
+        <v>-0.04362202477069633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1892081937938941</v>
+        <v>0.1931511244728953</v>
       </c>
       <c r="C97">
-        <v>-0.001947911774619681</v>
+        <v>-0.0003859025872189106</v>
       </c>
       <c r="D97">
-        <v>-0.02335720149466373</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02770832549673606</v>
+      </c>
+      <c r="E97">
+        <v>0.01884295979559375</v>
+      </c>
+      <c r="F97">
+        <v>0.1816883418177402</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1950243957479971</v>
+        <v>0.2010627159000904</v>
       </c>
       <c r="C98">
-        <v>-0.01600149035813248</v>
+        <v>-0.01109235548749555</v>
       </c>
       <c r="D98">
-        <v>0.00688556294525904</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.009730363354842673</v>
+      </c>
+      <c r="E98">
+        <v>-0.0881912746669293</v>
+      </c>
+      <c r="F98">
+        <v>0.07315402043997059</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05769787160717319</v>
+        <v>0.05729432883643572</v>
       </c>
       <c r="C99">
-        <v>0.0002636602720783877</v>
+        <v>0.002386980184240513</v>
       </c>
       <c r="D99">
-        <v>0.03872254626510917</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04385990636754729</v>
+      </c>
+      <c r="E99">
+        <v>0.02614308428536287</v>
+      </c>
+      <c r="F99">
+        <v>0.01122674844042144</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1458545979022515</v>
+        <v>0.1347843385111396</v>
       </c>
       <c r="C100">
-        <v>0.03506164044039517</v>
+        <v>0.04640772171837201</v>
       </c>
       <c r="D100">
-        <v>0.4001402268292911</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3618802416475925</v>
+      </c>
+      <c r="E100">
+        <v>-0.8933240534686069</v>
+      </c>
+      <c r="F100">
+        <v>0.01736282264106599</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.0254373682891836</v>
+        <v>0.02766079749862917</v>
       </c>
       <c r="C101">
-        <v>-0.009783157481533432</v>
+        <v>-0.009091117469162809</v>
       </c>
       <c r="D101">
-        <v>0.03082416644527004</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03083307418010051</v>
+      </c>
+      <c r="E101">
+        <v>0.01604721519773033</v>
+      </c>
+      <c r="F101">
+        <v>0.02721533910319785</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
